--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3127.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3127.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.281935147331856</v>
+        <v>1.697551846504211</v>
       </c>
       <c r="B1">
-        <v>1.784080862983354</v>
+        <v>1.954059481620789</v>
       </c>
       <c r="C1">
-        <v>3.166225905965872</v>
+        <v>2.008124828338623</v>
       </c>
       <c r="D1">
-        <v>5.241071620054186</v>
+        <v>2.572867870330811</v>
       </c>
       <c r="E1">
-        <v>1.270149657892</v>
+        <v>3.454827070236206</v>
       </c>
     </row>
   </sheetData>
